--- a/NRI_STLF_Data/LoadData/L_System95.xlsx
+++ b/NRI_STLF_Data/LoadData/L_System95.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hkarami\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\karami\temporary\New Folder\Works2\LoadData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="15480" windowHeight="11580"/>
+    <workbookView xWindow="120" yWindow="156" windowWidth="15480" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -396,15 +396,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC366"/>
+  <dimension ref="A1:AE366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F261" sqref="F261:AC261"/>
+    <sheetView tabSelected="1" topLeftCell="B205" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F217" sqref="F217:AE217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>95</v>
       </c>
@@ -492,8 +492,14 @@
       <c r="AC1" s="1">
         <v>23250.871654999999</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD1">
+        <v>25501.699999999997</v>
+      </c>
+      <c r="AE1">
+        <v>22189.199999999997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>95</v>
       </c>
@@ -581,8 +587,14 @@
       <c r="AC2" s="1">
         <v>24621.560365999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD2">
+        <v>25934.299999999996</v>
+      </c>
+      <c r="AE2">
+        <v>22337.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>95</v>
       </c>
@@ -670,8 +682,14 @@
       <c r="AC3" s="1">
         <v>24045.746403999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD3">
+        <v>25627.100000000002</v>
+      </c>
+      <c r="AE3">
+        <v>22282.600000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>95</v>
       </c>
@@ -759,8 +777,14 @@
       <c r="AC4" s="1">
         <v>24036.557677999994</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD4">
+        <v>26604.1</v>
+      </c>
+      <c r="AE4">
+        <v>22038.799999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>95</v>
       </c>
@@ -848,8 +872,14 @@
       <c r="AC5" s="2">
         <v>24718.587088000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD5">
+        <v>26786.099999999995</v>
+      </c>
+      <c r="AE5">
+        <v>23271.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>95</v>
       </c>
@@ -937,8 +967,14 @@
       <c r="AC6" s="2">
         <v>24797.646747000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD6">
+        <v>26643.600000000006</v>
+      </c>
+      <c r="AE6">
+        <v>22734.799999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>95</v>
       </c>
@@ -1026,8 +1062,14 @@
       <c r="AC7" s="2">
         <v>25739.458282999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD7">
+        <v>28674.000000000004</v>
+      </c>
+      <c r="AE7">
+        <v>25410.800000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>95</v>
       </c>
@@ -1115,8 +1157,14 @@
       <c r="AC8" s="2">
         <v>25737.261648999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8">
+        <v>28020.5</v>
+      </c>
+      <c r="AE8">
+        <v>25574.100000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>95</v>
       </c>
@@ -1204,8 +1252,14 @@
       <c r="AC9" s="2">
         <v>26111.887592999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9">
+        <v>28419.5</v>
+      </c>
+      <c r="AE9">
+        <v>25477.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>95</v>
       </c>
@@ -1293,8 +1347,14 @@
       <c r="AC10" s="2">
         <v>25975.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10">
+        <v>28786.6</v>
+      </c>
+      <c r="AE10">
+        <v>25801.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>95</v>
       </c>
@@ -1382,8 +1442,14 @@
       <c r="AC11" s="2">
         <v>25813.643199999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11">
+        <v>28300.799999999996</v>
+      </c>
+      <c r="AE11">
+        <v>25687.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>95</v>
       </c>
@@ -1471,8 +1537,14 @@
       <c r="AC12" s="1">
         <v>25654.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12">
+        <v>27635.7</v>
+      </c>
+      <c r="AE12">
+        <v>24708.699999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>95</v>
       </c>
@@ -1560,8 +1632,14 @@
       <c r="AC13" s="1">
         <v>23956.938971999993</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13">
+        <v>26304.300000000003</v>
+      </c>
+      <c r="AE13">
+        <v>21213.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>95</v>
       </c>
@@ -1649,8 +1727,14 @@
       <c r="AC14" s="2">
         <v>26823.911673999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14">
+        <v>30702.199999999997</v>
+      </c>
+      <c r="AE14">
+        <v>27472.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>95</v>
       </c>
@@ -1738,8 +1822,14 @@
       <c r="AC15" s="2">
         <v>27028.183512</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15">
+        <v>31030.899999999998</v>
+      </c>
+      <c r="AE15">
+        <v>28336.099999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>95</v>
       </c>
@@ -1827,8 +1917,14 @@
       <c r="AC16" s="2">
         <v>27673.599999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD16">
+        <v>30893.899999999998</v>
+      </c>
+      <c r="AE16">
+        <v>28380.800000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>95</v>
       </c>
@@ -1916,8 +2012,14 @@
       <c r="AC17" s="2">
         <v>28196.193717999995</v>
       </c>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD17">
+        <v>31509.799999999992</v>
+      </c>
+      <c r="AE17">
+        <v>28760.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>95</v>
       </c>
@@ -2005,8 +2107,14 @@
       <c r="AC18" s="2">
         <v>28530.379052</v>
       </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD18">
+        <v>31504.300000000003</v>
+      </c>
+      <c r="AE18">
+        <v>29127.599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>95</v>
       </c>
@@ -2094,8 +2202,14 @@
       <c r="AC19" s="2">
         <v>28513.886139999995</v>
       </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD19">
+        <v>31125.9</v>
+      </c>
+      <c r="AE19">
+        <v>29261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>95</v>
       </c>
@@ -2183,8 +2297,14 @@
       <c r="AC20" s="2">
         <v>28271.578203000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD20">
+        <v>30205</v>
+      </c>
+      <c r="AE20">
+        <v>26120.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>95</v>
       </c>
@@ -2272,8 +2392,14 @@
       <c r="AC21" s="2">
         <v>29595.050188000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD21">
+        <v>32391.600000000002</v>
+      </c>
+      <c r="AE21">
+        <v>29928.600000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>95</v>
       </c>
@@ -2361,8 +2487,14 @@
       <c r="AC22" s="2">
         <v>29871.857579000007</v>
       </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD22">
+        <v>32361.100000000002</v>
+      </c>
+      <c r="AE22">
+        <v>29995.899999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>95</v>
       </c>
@@ -2450,8 +2582,14 @@
       <c r="AC23" s="2">
         <v>29594.482805999993</v>
       </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD23">
+        <v>32390.800000000003</v>
+      </c>
+      <c r="AE23">
+        <v>30426.799999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>95</v>
       </c>
@@ -2539,8 +2677,14 @@
       <c r="AC24" s="2">
         <v>29057.102340000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD24">
+        <v>32144.400000000001</v>
+      </c>
+      <c r="AE24">
+        <v>30335.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>95</v>
       </c>
@@ -2628,8 +2772,14 @@
       <c r="AC25" s="2">
         <v>29226.514910999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD25">
+        <v>31960.800000000007</v>
+      </c>
+      <c r="AE25">
+        <v>29925.800000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>95</v>
       </c>
@@ -2717,8 +2867,14 @@
       <c r="AC26" s="2">
         <v>28259.280413000004</v>
       </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD26">
+        <v>30642.499999999996</v>
+      </c>
+      <c r="AE26">
+        <v>29758.899999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>95</v>
       </c>
@@ -2806,8 +2962,14 @@
       <c r="AC27" s="2">
         <v>27344.798349000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD27">
+        <v>29446.799999999999</v>
+      </c>
+      <c r="AE27">
+        <v>25657.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>95</v>
       </c>
@@ -2895,8 +3057,14 @@
       <c r="AC28" s="2">
         <v>28757.381205000005</v>
       </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD28">
+        <v>31453.199999999997</v>
+      </c>
+      <c r="AE28">
+        <v>29326.499999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>95</v>
       </c>
@@ -2984,8 +3152,14 @@
       <c r="AC29" s="2">
         <v>29484.295311999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD29">
+        <v>31713.8</v>
+      </c>
+      <c r="AE29">
+        <v>29561.599999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>95</v>
       </c>
@@ -3073,8 +3247,14 @@
       <c r="AC30" s="2">
         <v>30048.07662</v>
       </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD30">
+        <v>32575.4</v>
+      </c>
+      <c r="AE30">
+        <v>29962.600000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>95</v>
       </c>
@@ -3162,8 +3342,14 @@
       <c r="AC31" s="2">
         <v>29941.956609999994</v>
       </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD31">
+        <v>32479.699999999997</v>
+      </c>
+      <c r="AE31">
+        <v>30179.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>95</v>
       </c>
@@ -3251,8 +3437,14 @@
       <c r="AC32" s="2">
         <v>30060.706771999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD32">
+        <v>32255.099999999995</v>
+      </c>
+      <c r="AE32">
+        <v>30291.200000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>95</v>
       </c>
@@ -3340,8 +3532,14 @@
       <c r="AC33" s="1">
         <v>29133.834163000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD33">
+        <v>30881.700000000004</v>
+      </c>
+      <c r="AE33">
+        <v>28383.600000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>95</v>
       </c>
@@ -3429,8 +3627,14 @@
       <c r="AC34" s="2">
         <v>29843.771910000003</v>
       </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD34">
+        <v>31284.9</v>
+      </c>
+      <c r="AE34">
+        <v>27544.699999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>95</v>
       </c>
@@ -3518,8 +3722,14 @@
       <c r="AC35" s="2">
         <v>31742.589499999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD35">
+        <v>34139.800000000003</v>
+      </c>
+      <c r="AE35">
+        <v>31628.80000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>95</v>
       </c>
@@ -3607,8 +3817,14 @@
       <c r="AC36" s="2">
         <v>31825.537405000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD36">
+        <v>33974.699999999997</v>
+      </c>
+      <c r="AE36">
+        <v>32127.399999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>95</v>
       </c>
@@ -3696,8 +3912,14 @@
       <c r="AC37" s="2">
         <v>32809.200446000003</v>
       </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD37">
+        <v>35086.700000000004</v>
+      </c>
+      <c r="AE37">
+        <v>33039</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>95</v>
       </c>
@@ -3785,8 +4007,14 @@
       <c r="AC38" s="2">
         <v>33242.047599999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD38">
+        <v>35731.4</v>
+      </c>
+      <c r="AE38">
+        <v>34027.199999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>95</v>
       </c>
@@ -3874,8 +4102,14 @@
       <c r="AC39" s="2">
         <v>33755.134607999993</v>
       </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD39">
+        <v>36093.100000000006</v>
+      </c>
+      <c r="AE39">
+        <v>35080.700000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>95</v>
       </c>
@@ -3963,8 +4197,14 @@
       <c r="AC40" s="2">
         <v>33226.973881999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD40">
+        <v>35277.9</v>
+      </c>
+      <c r="AE40">
+        <v>34739.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>95</v>
       </c>
@@ -4052,8 +4292,14 @@
       <c r="AC41" s="2">
         <v>32351.426469999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD41">
+        <v>34233.199999999997</v>
+      </c>
+      <c r="AE41">
+        <v>31771.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>95</v>
       </c>
@@ -4141,8 +4387,14 @@
       <c r="AC42" s="2">
         <v>32655.936974000004</v>
       </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD42">
+        <v>35352.300000000003</v>
+      </c>
+      <c r="AE42">
+        <v>34373.199999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>95</v>
       </c>
@@ -4230,8 +4482,14 @@
       <c r="AC43" s="2">
         <v>33237.069360000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD43">
+        <v>35320.200000000012</v>
+      </c>
+      <c r="AE43">
+        <v>33619.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>95</v>
       </c>
@@ -4319,8 +4577,14 @@
       <c r="AC44" s="2">
         <v>33631.964244999996</v>
       </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD44">
+        <v>35407.299999999988</v>
+      </c>
+      <c r="AE44">
+        <v>34629.299999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>95</v>
       </c>
@@ -4408,8 +4672,14 @@
       <c r="AC45" s="2">
         <v>33692.925927999997</v>
       </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD45">
+        <v>36186.899999999994</v>
+      </c>
+      <c r="AE45">
+        <v>35367.599999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>95</v>
       </c>
@@ -4497,8 +4767,14 @@
       <c r="AC46" s="2">
         <v>34442.825195999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD46">
+        <v>36454.699999999997</v>
+      </c>
+      <c r="AE46">
+        <v>36022.199999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>95</v>
       </c>
@@ -4586,8 +4862,14 @@
       <c r="AC47" s="1">
         <v>33227.277792000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD47">
+        <v>34698.19999999999</v>
+      </c>
+      <c r="AE47">
+        <v>33783.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>95</v>
       </c>
@@ -4675,8 +4957,14 @@
       <c r="AC48" s="2">
         <v>32567.540460000007</v>
       </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD48">
+        <v>34269.200000000004</v>
+      </c>
+      <c r="AE48">
+        <v>32080.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>95</v>
       </c>
@@ -4764,8 +5052,14 @@
       <c r="AC49" s="2">
         <v>35333.722803999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD49">
+        <v>37776.400000000009</v>
+      </c>
+      <c r="AE49">
+        <v>36793.30000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>95</v>
       </c>
@@ -4853,8 +5147,14 @@
       <c r="AC50" s="2">
         <v>35405.533964000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD50">
+        <v>37722.9</v>
+      </c>
+      <c r="AE50">
+        <v>37051.599999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>95</v>
       </c>
@@ -4942,8 +5242,14 @@
       <c r="AC51" s="2">
         <v>34686.049024</v>
       </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD51">
+        <v>37125.19999999999</v>
+      </c>
+      <c r="AE51">
+        <v>36746.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>95</v>
       </c>
@@ -5031,8 +5337,14 @@
       <c r="AC52" s="2">
         <v>34571.923902999995</v>
       </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD52">
+        <v>37137.699999999997</v>
+      </c>
+      <c r="AE52">
+        <v>36987.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>95</v>
       </c>
@@ -5120,8 +5432,14 @@
       <c r="AC53" s="2">
         <v>34271.642932000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD53">
+        <v>36425</v>
+      </c>
+      <c r="AE53">
+        <v>35947.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>95</v>
       </c>
@@ -5209,8 +5527,14 @@
       <c r="AC54" s="2">
         <v>34040.338474999997</v>
       </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD54">
+        <v>36139.5</v>
+      </c>
+      <c r="AE54">
+        <v>35424.399999999987</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>95</v>
       </c>
@@ -5298,8 +5622,14 @@
       <c r="AC55" s="2">
         <v>33666.779376000006</v>
       </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD55">
+        <v>35264.1</v>
+      </c>
+      <c r="AE55">
+        <v>32962.700000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>95</v>
       </c>
@@ -5387,8 +5717,14 @@
       <c r="AC56" s="2">
         <v>36022.663548000004</v>
       </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD56">
+        <v>38180.400000000001</v>
+      </c>
+      <c r="AE56">
+        <v>37636.000000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>95</v>
       </c>
@@ -5476,8 +5812,14 @@
       <c r="AC57" s="2">
         <v>36993.778424000004</v>
       </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD57">
+        <v>39681.899999999994</v>
+      </c>
+      <c r="AE57">
+        <v>38797.200000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>95</v>
       </c>
@@ -5565,8 +5907,14 @@
       <c r="AC58" s="2">
         <v>38186.884537999998</v>
       </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD58">
+        <v>40612.400000000001</v>
+      </c>
+      <c r="AE58">
+        <v>40278.499999999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>95</v>
       </c>
@@ -5654,8 +6002,14 @@
       <c r="AC59" s="2">
         <v>38562.223231000004</v>
       </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD59">
+        <v>41159.80000000001</v>
+      </c>
+      <c r="AE59">
+        <v>42194.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>95</v>
       </c>
@@ -5743,8 +6097,14 @@
       <c r="AC60" s="2">
         <v>38968.841059999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD60">
+        <v>40594.600000000006</v>
+      </c>
+      <c r="AE60">
+        <v>42291.299999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>95</v>
       </c>
@@ -5832,8 +6192,14 @@
       <c r="AC61" s="2">
         <v>37676.530699999996</v>
       </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD61">
+        <v>39645.500000000007</v>
+      </c>
+      <c r="AE61">
+        <v>40987.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>95</v>
       </c>
@@ -5921,8 +6287,14 @@
       <c r="AC62" s="2">
         <v>36153.252433000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD62">
+        <v>38133.100000000006</v>
+      </c>
+      <c r="AE62">
+        <v>37111.100000000006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>95</v>
       </c>
@@ -6010,8 +6382,14 @@
       <c r="AC63" s="2">
         <v>37021.509396000009</v>
       </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD63">
+        <v>39014.500000000007</v>
+      </c>
+      <c r="AE63">
+        <v>39609.999999999993</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>95</v>
       </c>
@@ -6099,8 +6477,14 @@
       <c r="AC64" s="1">
         <v>36525.130916999995</v>
       </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD64">
+        <v>37597.200000000004</v>
+      </c>
+      <c r="AE64">
+        <v>36455.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>95</v>
       </c>
@@ -6188,8 +6572,14 @@
       <c r="AC65" s="2">
         <v>38759.469052000008</v>
       </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD65">
+        <v>40730</v>
+      </c>
+      <c r="AE65">
+        <v>41092.600000000006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>95</v>
       </c>
@@ -6277,8 +6667,14 @@
       <c r="AC66" s="2">
         <v>39176.698965999989</v>
       </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD66">
+        <v>41294.800000000003</v>
+      </c>
+      <c r="AE66">
+        <v>41286.599999999991</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>95</v>
       </c>
@@ -6366,8 +6762,14 @@
       <c r="AC67" s="2">
         <v>37813.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD67">
+        <v>40000.000000000007</v>
+      </c>
+      <c r="AE67">
+        <v>40277.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>95</v>
       </c>
@@ -6455,8 +6857,14 @@
       <c r="AC68" s="2">
         <v>37467.486902999997</v>
       </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD68">
+        <v>39164.300000000003</v>
+      </c>
+      <c r="AE68">
+        <v>39068.700000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>95</v>
       </c>
@@ -6544,8 +6952,14 @@
       <c r="AC69" s="2">
         <v>37795.514451999996</v>
       </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD69">
+        <v>39125.400000000009</v>
+      </c>
+      <c r="AE69">
+        <v>36691.700000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>95</v>
       </c>
@@ -6633,8 +7047,14 @@
       <c r="AC70" s="2">
         <v>40776</v>
       </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD70">
+        <v>42289.69999999999</v>
+      </c>
+      <c r="AE70">
+        <v>42701.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>95</v>
       </c>
@@ -6722,8 +7142,14 @@
       <c r="AC71" s="2">
         <v>40955.042765999991</v>
       </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD71">
+        <v>43275.400000000009</v>
+      </c>
+      <c r="AE71">
+        <v>44421.500000000007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>95</v>
       </c>
@@ -6811,8 +7237,14 @@
       <c r="AC72" s="2">
         <v>40164.090797999997</v>
       </c>
-    </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD72">
+        <v>42246.799999999996</v>
+      </c>
+      <c r="AE72">
+        <v>43638.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>95</v>
       </c>
@@ -6900,8 +7332,14 @@
       <c r="AC73" s="2">
         <v>39383.48782599999</v>
       </c>
-    </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD73">
+        <v>41614.799999999996</v>
+      </c>
+      <c r="AE73">
+        <v>42562.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>95</v>
       </c>
@@ -6989,8 +7427,14 @@
       <c r="AC74" s="2">
         <v>38781.823356000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD74">
+        <v>40603.900000000009</v>
+      </c>
+      <c r="AE74">
+        <v>41781.9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>95</v>
       </c>
@@ -7078,8 +7522,14 @@
       <c r="AC75" s="2">
         <v>37684.122947999989</v>
       </c>
-    </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD75">
+        <v>39504.6</v>
+      </c>
+      <c r="AE75">
+        <v>40389.899999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>95</v>
       </c>
@@ -7167,8 +7617,14 @@
       <c r="AC76" s="2">
         <v>37411.970378999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD76">
+        <v>38391.800000000003</v>
+      </c>
+      <c r="AE76">
+        <v>36717.899999999994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>95</v>
       </c>
@@ -7256,8 +7712,14 @@
       <c r="AC77" s="2">
         <v>39748.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD77">
+        <v>40538.300000000003</v>
+      </c>
+      <c r="AE77">
+        <v>38678.300000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>95</v>
       </c>
@@ -7345,8 +7807,14 @@
       <c r="AC78" s="2">
         <v>41546.436546999998</v>
       </c>
-    </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD78">
+        <v>43687.700000000004</v>
+      </c>
+      <c r="AE78">
+        <v>44188.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>95</v>
       </c>
@@ -7434,8 +7902,14 @@
       <c r="AC79" s="2">
         <v>42773</v>
       </c>
-    </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD79">
+        <v>44944.099999999991</v>
+      </c>
+      <c r="AE79">
+        <v>45354.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>95</v>
       </c>
@@ -7523,8 +7997,14 @@
       <c r="AC80" s="2">
         <v>43252.547554999997</v>
       </c>
-    </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD80">
+        <v>45482.299999999996</v>
+      </c>
+      <c r="AE80">
+        <v>45189.299999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>95</v>
       </c>
@@ -7612,8 +8092,14 @@
       <c r="AC81" s="2">
         <v>42308.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD81">
+        <v>44710</v>
+      </c>
+      <c r="AE81">
+        <v>44697.799999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>95</v>
       </c>
@@ -7701,8 +8187,14 @@
       <c r="AC82" s="2">
         <v>41901.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD82">
+        <v>43765.3</v>
+      </c>
+      <c r="AE82">
+        <v>43468.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>95</v>
       </c>
@@ -7790,8 +8282,14 @@
       <c r="AC83" s="2">
         <v>41435.521343999993</v>
       </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD83">
+        <v>42696.800000000003</v>
+      </c>
+      <c r="AE83">
+        <v>40768.999999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>95</v>
       </c>
@@ -7879,8 +8377,14 @@
       <c r="AC84" s="2">
         <v>42530.428731999993</v>
       </c>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD84">
+        <v>44964.900000000009</v>
+      </c>
+      <c r="AE84">
+        <v>45503.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>95</v>
       </c>
@@ -7968,8 +8472,14 @@
       <c r="AC85" s="2">
         <v>41470.452979999995</v>
       </c>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD85">
+        <v>43623.299999999996</v>
+      </c>
+      <c r="AE85">
+        <v>43851.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>95</v>
       </c>
@@ -8057,8 +8567,14 @@
       <c r="AC86" s="2">
         <v>40278.573905999998</v>
       </c>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD86">
+        <v>42590.2</v>
+      </c>
+      <c r="AE86">
+        <v>42146.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>95</v>
       </c>
@@ -8146,8 +8662,14 @@
       <c r="AC87" s="2">
         <v>40995.181259999998</v>
       </c>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD87">
+        <v>42937.299999999996</v>
+      </c>
+      <c r="AE87">
+        <v>42488.800000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>95</v>
       </c>
@@ -8235,8 +8757,14 @@
       <c r="AC88" s="2">
         <v>41598.725975999987</v>
       </c>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD88">
+        <v>43594.799999999996</v>
+      </c>
+      <c r="AE88">
+        <v>43276.200000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>95</v>
       </c>
@@ -8324,8 +8852,14 @@
       <c r="AC89" s="2">
         <v>41336.707522000004</v>
       </c>
-    </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD89">
+        <v>42751.600000000006</v>
+      </c>
+      <c r="AE89">
+        <v>42760.000000000007</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>95</v>
       </c>
@@ -8413,8 +8947,14 @@
       <c r="AC90" s="2">
         <v>40305.038796000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD90">
+        <v>41322.399999999994</v>
+      </c>
+      <c r="AE90">
+        <v>39573.399999999994</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>95</v>
       </c>
@@ -8502,8 +9042,14 @@
       <c r="AC91" s="2">
         <v>42054.241393000011</v>
       </c>
-    </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD91">
+        <v>44399.900000000009</v>
+      </c>
+      <c r="AE91">
+        <v>44553.69999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>95</v>
       </c>
@@ -8591,8 +9137,14 @@
       <c r="AC92" s="2">
         <v>43126.29436700001</v>
       </c>
-    </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD92">
+        <v>45226.100000000006</v>
+      </c>
+      <c r="AE92">
+        <v>45389.899999999994</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>95</v>
       </c>
@@ -8680,8 +9232,14 @@
       <c r="AC93" s="2">
         <v>43396.956259000006</v>
       </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD93">
+        <v>44972.4</v>
+      </c>
+      <c r="AE93">
+        <v>45912.800000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>95</v>
       </c>
@@ -8769,8 +9327,14 @@
       <c r="AC94" s="2">
         <v>43616.644161000004</v>
       </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD94">
+        <v>45442.3</v>
+      </c>
+      <c r="AE94">
+        <v>45916.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
@@ -8858,8 +9422,14 @@
       <c r="AC95" s="2">
         <v>43847.247233000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD95">
+        <v>45250.200000000004</v>
+      </c>
+      <c r="AE95">
+        <v>45795.8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8947,8 +9517,14 @@
       <c r="AC96" s="2">
         <v>42497.778763000002</v>
       </c>
-    </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD96">
+        <v>44283.000000000007</v>
+      </c>
+      <c r="AE96">
+        <v>45054.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -9036,8 +9612,14 @@
       <c r="AC97" s="2">
         <v>41755.551135000009</v>
       </c>
-    </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD97">
+        <v>43068.2</v>
+      </c>
+      <c r="AE97">
+        <v>42090.099999999991</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>95</v>
       </c>
@@ -9125,8 +9707,14 @@
       <c r="AC98" s="2">
         <v>43987.096614999995</v>
       </c>
-    </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD98">
+        <v>45944.399999999994</v>
+      </c>
+      <c r="AE98">
+        <v>46480.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>95</v>
       </c>
@@ -9214,8 +9802,14 @@
       <c r="AC99" s="2">
         <v>41868.163240000002</v>
       </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD99">
+        <v>44784.4</v>
+      </c>
+      <c r="AE99">
+        <v>46561.399999999994</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>95</v>
       </c>
@@ -9303,8 +9897,14 @@
       <c r="AC100" s="1">
         <v>42745.688575000007</v>
       </c>
-    </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD100">
+        <v>43890.200000000004</v>
+      </c>
+      <c r="AE100">
+        <v>41535.699999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>95</v>
       </c>
@@ -9392,8 +9992,14 @@
       <c r="AC101" s="2">
         <v>44900.589015000005</v>
       </c>
-    </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD101">
+        <v>47151.200000000004</v>
+      </c>
+      <c r="AE101">
+        <v>48291.899999999994</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>95</v>
       </c>
@@ -9481,8 +10087,14 @@
       <c r="AC102" s="2">
         <v>46473.8</v>
       </c>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD102">
+        <v>47905.700000000004</v>
+      </c>
+      <c r="AE102">
+        <v>49085.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>95</v>
       </c>
@@ -9570,8 +10182,14 @@
       <c r="AC103" s="2">
         <v>46127.916141999995</v>
       </c>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD103">
+        <v>47773.399999999994</v>
+      </c>
+      <c r="AE103">
+        <v>48586.100000000006</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>95</v>
       </c>
@@ -9659,8 +10277,14 @@
       <c r="AC104" s="2">
         <v>45864.178807999997</v>
       </c>
-    </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD104">
+        <v>46594.3</v>
+      </c>
+      <c r="AE104">
+        <v>46022</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>95</v>
       </c>
@@ -9748,8 +10372,14 @@
       <c r="AC105" s="2">
         <v>47237.4</v>
       </c>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD105">
+        <v>48807.400000000016</v>
+      </c>
+      <c r="AE105">
+        <v>51018.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>95</v>
       </c>
@@ -9837,8 +10467,14 @@
       <c r="AC106" s="2">
         <v>46286.481849000003</v>
       </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD106">
+        <v>47593.599999999999</v>
+      </c>
+      <c r="AE106">
+        <v>48965.200000000004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>95</v>
       </c>
@@ -9926,8 +10562,14 @@
       <c r="AC107" s="2">
         <v>45392.642833999998</v>
       </c>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD107">
+        <v>47128.3</v>
+      </c>
+      <c r="AE107">
+        <v>48040.599999999991</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>95</v>
       </c>
@@ -10015,8 +10657,14 @@
       <c r="AC108" s="2">
         <v>44485.432991999995</v>
       </c>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD108">
+        <v>46886.1</v>
+      </c>
+      <c r="AE108">
+        <v>48146.200000000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>95</v>
       </c>
@@ -10104,8 +10752,14 @@
       <c r="AC109" s="1">
         <v>41282.199999999997</v>
       </c>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD109">
+        <v>42010.400000000001</v>
+      </c>
+      <c r="AE109">
+        <v>41024.299999999996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>95</v>
       </c>
@@ -10193,8 +10847,14 @@
       <c r="AC110" s="1">
         <v>41720.201943999986</v>
       </c>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD110">
+        <v>42367.5</v>
+      </c>
+      <c r="AE110">
+        <v>41553.299999999996</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>95</v>
       </c>
@@ -10282,8 +10942,14 @@
       <c r="AC111" s="2">
         <v>43429.1</v>
       </c>
-    </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD111">
+        <v>44263.6</v>
+      </c>
+      <c r="AE111">
+        <v>42158.700000000004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>95</v>
       </c>
@@ -10371,8 +11037,14 @@
       <c r="AC112" s="2">
         <v>45819.32022300001</v>
       </c>
-    </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD112">
+        <v>47278.500000000007</v>
+      </c>
+      <c r="AE112">
+        <v>49145.600000000006</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>95</v>
       </c>
@@ -10460,8 +11132,14 @@
       <c r="AC113" s="2">
         <v>45964.945915999997</v>
       </c>
-    </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD113">
+        <v>47255.199999999997</v>
+      </c>
+      <c r="AE113">
+        <v>48475.600000000013</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>95</v>
       </c>
@@ -10549,8 +11227,14 @@
       <c r="AC114" s="2">
         <v>45698.8</v>
       </c>
-    </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD114">
+        <v>47563.1</v>
+      </c>
+      <c r="AE114">
+        <v>48869.80000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>95</v>
       </c>
@@ -10638,8 +11322,14 @@
       <c r="AC115" s="2">
         <v>44803.146145999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD115">
+        <v>46826.700000000012</v>
+      </c>
+      <c r="AE115">
+        <v>47710.600000000013</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>95</v>
       </c>
@@ -10727,8 +11417,14 @@
       <c r="AC116" s="2">
         <v>44537.7</v>
       </c>
-    </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD116">
+        <v>46668.600000000013</v>
+      </c>
+      <c r="AE116">
+        <v>47708.399999999994</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>95</v>
       </c>
@@ -10816,8 +11512,14 @@
       <c r="AC117" s="2">
         <v>44562.107034000008</v>
       </c>
-    </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD117">
+        <v>46277.8</v>
+      </c>
+      <c r="AE117">
+        <v>46910.200000000004</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>95</v>
       </c>
@@ -10905,8 +11607,14 @@
       <c r="AC118" s="2">
         <v>44148.422629999994</v>
       </c>
-    </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD118">
+        <v>44876</v>
+      </c>
+      <c r="AE118">
+        <v>43954.899999999994</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>95</v>
       </c>
@@ -10994,8 +11702,14 @@
       <c r="AC119" s="2">
         <v>47089.842140000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD119">
+        <v>49270.400000000001</v>
+      </c>
+      <c r="AE119">
+        <v>50231.999999999993</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>95</v>
       </c>
@@ -11083,8 +11797,14 @@
       <c r="AC120" s="2">
         <v>47708.556221000006</v>
       </c>
-    </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD120">
+        <v>49275.299999999996</v>
+      </c>
+      <c r="AE120">
+        <v>51135.100000000006</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>95</v>
       </c>
@@ -11172,8 +11892,14 @@
       <c r="AC121" s="2">
         <v>47816.7</v>
       </c>
-    </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD121">
+        <v>49373.400000000009</v>
+      </c>
+      <c r="AE121">
+        <v>50783.899999999994</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>95</v>
       </c>
@@ -11261,8 +11987,14 @@
       <c r="AC122" s="2">
         <v>48590.842090999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD122">
+        <v>50351.8</v>
+      </c>
+      <c r="AE122">
+        <v>52285.999999999985</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>95</v>
       </c>
@@ -11350,8 +12082,14 @@
       <c r="AC123" s="2">
         <v>48623.7</v>
       </c>
-    </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD123">
+        <v>50065</v>
+      </c>
+      <c r="AE123">
+        <v>52526</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>95</v>
       </c>
@@ -11439,8 +12177,14 @@
       <c r="AC124" s="2">
         <v>47539.040412000009</v>
       </c>
-    </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD124">
+        <v>48927.700000000004</v>
+      </c>
+      <c r="AE124">
+        <v>50889.2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>95</v>
       </c>
@@ -11528,8 +12272,14 @@
       <c r="AC125" s="2">
         <v>46821</v>
       </c>
-    </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD125">
+        <v>47091.4</v>
+      </c>
+      <c r="AE125">
+        <v>46665.299999999996</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>95</v>
       </c>
@@ -11617,8 +12367,14 @@
       <c r="AC126" s="2">
         <v>47850.683699000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD126">
+        <v>49457.4</v>
+      </c>
+      <c r="AE126">
+        <v>51393.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>95</v>
       </c>
@@ -11706,8 +12462,14 @@
       <c r="AC127" s="2">
         <v>47543.056568</v>
       </c>
-    </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD127">
+        <v>48648.699999999983</v>
+      </c>
+      <c r="AE127">
+        <v>49951.799999999996</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>95</v>
       </c>
@@ -11795,8 +12557,14 @@
       <c r="AC128" s="2">
         <v>46767.3</v>
       </c>
-    </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD128">
+        <v>49069.8</v>
+      </c>
+      <c r="AE128">
+        <v>50068.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>95</v>
       </c>
@@ -11884,8 +12652,14 @@
       <c r="AC129" s="2">
         <v>45894.581819999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD129">
+        <v>48538.400000000001</v>
+      </c>
+      <c r="AE129">
+        <v>49896.9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>95</v>
       </c>
@@ -11973,8 +12747,14 @@
       <c r="AC130" s="2">
         <v>45743.059136000003</v>
       </c>
-    </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD130">
+        <v>47590.000000000015</v>
+      </c>
+      <c r="AE130">
+        <v>48746.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>95</v>
       </c>
@@ -12062,8 +12842,14 @@
       <c r="AC131" s="2">
         <v>44877.899999999994</v>
       </c>
-    </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD131">
+        <v>47046.100000000006</v>
+      </c>
+      <c r="AE131">
+        <v>48125.100000000013</v>
+      </c>
+    </row>
+    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>95</v>
       </c>
@@ -12151,8 +12937,14 @@
       <c r="AC132" s="2">
         <v>42118.794964000001</v>
       </c>
-    </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD132">
+        <v>43425.4</v>
+      </c>
+      <c r="AE132">
+        <v>42973.599999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>95</v>
       </c>
@@ -12240,8 +13032,14 @@
       <c r="AC133" s="1">
         <v>44643.099597</v>
       </c>
-    </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD133">
+        <v>45430.2</v>
+      </c>
+      <c r="AE133">
+        <v>43978.400000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>95</v>
       </c>
@@ -12329,8 +13127,14 @@
       <c r="AC134" s="2">
         <v>46082.547807999996</v>
       </c>
-    </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD134">
+        <v>48171.5</v>
+      </c>
+      <c r="AE134">
+        <v>49059.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>95</v>
       </c>
@@ -12418,8 +13222,14 @@
       <c r="AC135" s="2">
         <v>46844.197268999997</v>
       </c>
-    </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD135">
+        <v>49058.400000000001</v>
+      </c>
+      <c r="AE135">
+        <v>49343.999999999993</v>
+      </c>
+    </row>
+    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>95</v>
       </c>
@@ -12507,8 +13317,14 @@
       <c r="AC136" s="2">
         <v>46365.2</v>
       </c>
-    </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD136">
+        <v>48344.899999999994</v>
+      </c>
+      <c r="AE136">
+        <v>50012.200000000004</v>
+      </c>
+    </row>
+    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>95</v>
       </c>
@@ -12596,8 +13412,14 @@
       <c r="AC137" s="2">
         <v>46035.395951999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD137">
+        <v>48619.399999999987</v>
+      </c>
+      <c r="AE137">
+        <v>49771.600000000006</v>
+      </c>
+    </row>
+    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>95</v>
       </c>
@@ -12685,8 +13507,14 @@
       <c r="AC138" s="2">
         <v>44939.514891999999</v>
       </c>
-    </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD138">
+        <v>47077.700000000004</v>
+      </c>
+      <c r="AE138">
+        <v>48324.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>95</v>
       </c>
@@ -12774,8 +13602,14 @@
       <c r="AC139" s="2">
         <v>44868.24639</v>
       </c>
-    </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD139">
+        <v>46376.4</v>
+      </c>
+      <c r="AE139">
+        <v>44519.19999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>95</v>
       </c>
@@ -12863,8 +13697,14 @@
       <c r="AC140" s="2">
         <v>46839.175260000004</v>
       </c>
-    </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD140">
+        <v>49641.30000000001</v>
+      </c>
+      <c r="AE140">
+        <v>50488.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>95</v>
       </c>
@@ -12952,8 +13792,14 @@
       <c r="AC141" s="2">
         <v>46872.799999999996</v>
       </c>
-    </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD141">
+        <v>49232.7</v>
+      </c>
+      <c r="AE141">
+        <v>50164.099999999991</v>
+      </c>
+    </row>
+    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>95</v>
       </c>
@@ -13041,8 +13887,14 @@
       <c r="AC142" s="2">
         <v>46996.585041999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD142">
+        <v>49659.80000000001</v>
+      </c>
+      <c r="AE142">
+        <v>50843.600000000006</v>
+      </c>
+    </row>
+    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>95</v>
       </c>
@@ -13130,8 +13982,14 @@
       <c r="AC143" s="2">
         <v>47064.484864999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD143">
+        <v>49718</v>
+      </c>
+      <c r="AE143">
+        <v>50750</v>
+      </c>
+    </row>
+    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>95</v>
       </c>
@@ -13219,8 +14077,14 @@
       <c r="AC144" s="2">
         <v>47278.675572</v>
       </c>
-    </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD144">
+        <v>49519.999999999985</v>
+      </c>
+      <c r="AE144">
+        <v>50930.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>95</v>
       </c>
@@ -13308,8 +14172,14 @@
       <c r="AC145" s="2">
         <v>45999.828116999997</v>
       </c>
-    </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD145">
+        <v>48408.000000000015</v>
+      </c>
+      <c r="AE145">
+        <v>49877.600000000006</v>
+      </c>
+    </row>
+    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>95</v>
       </c>
@@ -13397,8 +14267,14 @@
       <c r="AC146" s="2">
         <v>45714.799999999996</v>
       </c>
-    </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD146">
+        <v>47086.000000000007</v>
+      </c>
+      <c r="AE146">
+        <v>45884.099999999991</v>
+      </c>
+    </row>
+    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>95</v>
       </c>
@@ -13486,8 +14362,14 @@
       <c r="AC147" s="2">
         <v>47409.193247999996</v>
       </c>
-    </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD147">
+        <v>50341.599999999999</v>
+      </c>
+      <c r="AE147">
+        <v>51058</v>
+      </c>
+    </row>
+    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>95</v>
       </c>
@@ -13575,8 +14457,14 @@
       <c r="AC148" s="2">
         <v>47671.450915000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD148">
+        <v>49701.30000000001</v>
+      </c>
+      <c r="AE148">
+        <v>51303.6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>95</v>
       </c>
@@ -13664,8 +14552,14 @@
       <c r="AC149" s="2">
         <v>47183.799999999996</v>
       </c>
-    </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD149">
+        <v>49671.7</v>
+      </c>
+      <c r="AE149">
+        <v>50944.100000000006</v>
+      </c>
+    </row>
+    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>95</v>
       </c>
@@ -13753,8 +14647,14 @@
       <c r="AC150" s="2">
         <v>46283.583328000008</v>
       </c>
-    </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD150">
+        <v>48585.30000000001</v>
+      </c>
+      <c r="AE150">
+        <v>49485.900000000009</v>
+      </c>
+    </row>
+    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>95</v>
       </c>
@@ -13842,8 +14742,14 @@
       <c r="AC151" s="2">
         <v>45696.800000000003</v>
       </c>
-    </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD151">
+        <v>47902.899999999994</v>
+      </c>
+      <c r="AE151">
+        <v>49027.30000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>95</v>
       </c>
@@ -13931,8 +14837,14 @@
       <c r="AC152" s="2">
         <v>44291.330424000007</v>
       </c>
-    </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD152">
+        <v>46868.799999999996</v>
+      </c>
+      <c r="AE152">
+        <v>47669.499999999993</v>
+      </c>
+    </row>
+    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>95</v>
       </c>
@@ -14020,8 +14932,14 @@
       <c r="AC153" s="2">
         <v>42732.119672000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD153">
+        <v>44728.499999999993</v>
+      </c>
+      <c r="AE153">
+        <v>43445.600000000006</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>95</v>
       </c>
@@ -14109,8 +15027,14 @@
       <c r="AC154" s="2">
         <v>45486.598861000006</v>
       </c>
-    </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD154">
+        <v>48152.400000000009</v>
+      </c>
+      <c r="AE154">
+        <v>49247.799999999988</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>95</v>
       </c>
@@ -14198,8 +15122,14 @@
       <c r="AC155" s="2">
         <v>45060.751405999996</v>
       </c>
-    </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD155">
+        <v>47922.3</v>
+      </c>
+      <c r="AE155">
+        <v>48490.199999999983</v>
+      </c>
+    </row>
+    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>95</v>
       </c>
@@ -14287,8 +15217,14 @@
       <c r="AC156" s="2">
         <v>45241.615002999999</v>
       </c>
-    </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD156">
+        <v>47737.9</v>
+      </c>
+      <c r="AE156">
+        <v>48371.899999999994</v>
+      </c>
+    </row>
+    <row r="157" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>95</v>
       </c>
@@ -14376,8 +15312,14 @@
       <c r="AC157" s="2">
         <v>44908.499388000004</v>
       </c>
-    </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD157">
+        <v>47747.200000000012</v>
+      </c>
+      <c r="AE157">
+        <v>48080.799999999996</v>
+      </c>
+    </row>
+    <row r="158" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>95</v>
       </c>
@@ -14465,8 +15407,14 @@
       <c r="AC158" s="2">
         <v>44306.130530000002</v>
       </c>
-    </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD158">
+        <v>47196.3</v>
+      </c>
+      <c r="AE158">
+        <v>48180.7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>95</v>
       </c>
@@ -14554,8 +15502,14 @@
       <c r="AC159" s="2">
         <v>43113.934600000001</v>
       </c>
-    </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD159">
+        <v>45723.999999999993</v>
+      </c>
+      <c r="AE159">
+        <v>46237.799999999996</v>
+      </c>
+    </row>
+    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>95</v>
       </c>
@@ -14643,8 +15597,14 @@
       <c r="AC160" s="2">
         <v>42768.576895999999</v>
       </c>
-    </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD160">
+        <v>44145.500000000007</v>
+      </c>
+      <c r="AE160">
+        <v>42630.9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>95</v>
       </c>
@@ -14732,8 +15692,14 @@
       <c r="AC161" s="2">
         <v>45177.328693000003</v>
       </c>
-    </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD161">
+        <v>48194</v>
+      </c>
+      <c r="AE161">
+        <v>48702.799999999988</v>
+      </c>
+    </row>
+    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>95</v>
       </c>
@@ -14821,8 +15787,14 @@
       <c r="AC162" s="2">
         <v>45532.1</v>
       </c>
-    </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD162">
+        <v>48127.5</v>
+      </c>
+      <c r="AE162">
+        <v>49093.399999999994</v>
+      </c>
+    </row>
+    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>95</v>
       </c>
@@ -14910,8 +15882,14 @@
       <c r="AC163" s="2">
         <v>45460.072819000001</v>
       </c>
-    </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD163">
+        <v>48153.7</v>
+      </c>
+      <c r="AE163">
+        <v>48752.499999999985</v>
+      </c>
+    </row>
+    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>95</v>
       </c>
@@ -14999,8 +15977,14 @@
       <c r="AC164" s="2">
         <v>45581.5</v>
       </c>
-    </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD164">
+        <v>48519.200000000004</v>
+      </c>
+      <c r="AE164">
+        <v>49069.499999999993</v>
+      </c>
+    </row>
+    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>95</v>
       </c>
@@ -15088,8 +16072,14 @@
       <c r="AC165" s="2">
         <v>45672.666313999995</v>
       </c>
-    </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD165">
+        <v>48338.8</v>
+      </c>
+      <c r="AE165">
+        <v>49343.7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>95</v>
       </c>
@@ -15177,8 +16167,14 @@
       <c r="AC166" s="2">
         <v>44604.540077000005</v>
       </c>
-    </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD166">
+        <v>47111.5</v>
+      </c>
+      <c r="AE166">
+        <v>47140.7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>95</v>
       </c>
@@ -15266,8 +16262,14 @@
       <c r="AC167" s="2">
         <v>42167.883406000001</v>
       </c>
-    </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD167">
+        <v>43528.499999999993</v>
+      </c>
+      <c r="AE167">
+        <v>41881.599999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>95</v>
       </c>
@@ -15355,8 +16357,14 @@
       <c r="AC168" s="2">
         <v>44437.162880000003</v>
       </c>
-    </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD168">
+        <v>47218.80000000001</v>
+      </c>
+      <c r="AE168">
+        <v>48114.2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>95</v>
       </c>
@@ -15444,8 +16452,14 @@
       <c r="AC169">
         <v>45131.8</v>
       </c>
-    </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD169">
+        <v>48116.799999999996</v>
+      </c>
+      <c r="AE169">
+        <v>48010.599999999991</v>
+      </c>
+    </row>
+    <row r="170" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>95</v>
       </c>
@@ -15533,8 +16547,14 @@
       <c r="AC170">
         <v>44544.841956999997</v>
       </c>
-    </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD170">
+        <v>47619.899999999994</v>
+      </c>
+      <c r="AE170">
+        <v>48321.600000000006</v>
+      </c>
+    </row>
+    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>95</v>
       </c>
@@ -15622,8 +16642,14 @@
       <c r="AC171">
         <v>43895.901667000006</v>
       </c>
-    </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD171">
+        <v>46935.69999999999</v>
+      </c>
+      <c r="AE171">
+        <v>47720.600000000006</v>
+      </c>
+    </row>
+    <row r="172" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>95</v>
       </c>
@@ -15711,8 +16737,14 @@
       <c r="AC172">
         <v>41843.88076</v>
       </c>
-    </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD172">
+        <v>45116</v>
+      </c>
+      <c r="AE172">
+        <v>45417.899999999994</v>
+      </c>
+    </row>
+    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>95</v>
       </c>
@@ -15800,8 +16832,14 @@
       <c r="AC173">
         <v>40329.1</v>
       </c>
-    </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD173">
+        <v>43165.899999999994</v>
+      </c>
+      <c r="AE173">
+        <v>42594.299999999988</v>
+      </c>
+    </row>
+    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>95</v>
       </c>
@@ -15889,8 +16927,14 @@
       <c r="AC174">
         <v>39761.1</v>
       </c>
-    </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD174">
+        <v>41359.299999999996</v>
+      </c>
+      <c r="AE174">
+        <v>38968.199999999997</v>
+      </c>
+    </row>
+    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>95</v>
       </c>
@@ -15978,8 +17022,14 @@
       <c r="AC175">
         <v>41603.571352000006</v>
       </c>
-    </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD175">
+        <v>44641.4</v>
+      </c>
+      <c r="AE175">
+        <v>44671.3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>95</v>
       </c>
@@ -16067,8 +17117,14 @@
       <c r="AC176">
         <v>41453.074691999995</v>
       </c>
-    </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD176">
+        <v>44368.3</v>
+      </c>
+      <c r="AE176">
+        <v>44344.399999999994</v>
+      </c>
+    </row>
+    <row r="177" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>95</v>
       </c>
@@ -16156,8 +17212,14 @@
       <c r="AC177">
         <v>40254.700000000004</v>
       </c>
-    </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD177">
+        <v>42022.600000000006</v>
+      </c>
+      <c r="AE177">
+        <v>39343.300000000003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>95</v>
       </c>
@@ -16245,8 +17307,14 @@
       <c r="AC178">
         <v>40820.249315999994</v>
       </c>
-    </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD178">
+        <v>43758.1</v>
+      </c>
+      <c r="AE178">
+        <v>43176.899999999987</v>
+      </c>
+    </row>
+    <row r="179" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>95</v>
       </c>
@@ -16334,8 +17402,14 @@
       <c r="AC179">
         <v>40512.428118999997</v>
       </c>
-    </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD179">
+        <v>43726.600000000006</v>
+      </c>
+      <c r="AE179">
+        <v>43586.8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>95</v>
       </c>
@@ -16423,8 +17497,14 @@
       <c r="AC180">
         <v>40568.035793999996</v>
       </c>
-    </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD180">
+        <v>43402.100000000006</v>
+      </c>
+      <c r="AE180">
+        <v>42877.80000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>95</v>
       </c>
@@ -16512,8 +17592,14 @@
       <c r="AC181">
         <v>39909.435802</v>
       </c>
-    </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD181">
+        <v>41601.899999999994</v>
+      </c>
+      <c r="AE181">
+        <v>39523.799999999988</v>
+      </c>
+    </row>
+    <row r="182" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>95</v>
       </c>
@@ -16601,8 +17687,14 @@
       <c r="AC182">
         <v>41335.203812000007</v>
       </c>
-    </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD182">
+        <v>44367.8</v>
+      </c>
+      <c r="AE182">
+        <v>44721.7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>95</v>
       </c>
@@ -16690,8 +17782,14 @@
       <c r="AC183">
         <v>40714.924792999998</v>
       </c>
-    </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD183">
+        <v>43242.200000000004</v>
+      </c>
+      <c r="AE183">
+        <v>43586.400000000009</v>
+      </c>
+    </row>
+    <row r="184" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>95</v>
       </c>
@@ -16779,8 +17877,14 @@
       <c r="AC184">
         <v>39152.600000000006</v>
       </c>
-    </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD184">
+        <v>42588.000000000007</v>
+      </c>
+      <c r="AE184">
+        <v>42568.600000000006</v>
+      </c>
+    </row>
+    <row r="185" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>95</v>
       </c>
@@ -16868,8 +17972,14 @@
       <c r="AC185">
         <v>37648.159668</v>
       </c>
-    </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD185">
+        <v>40279.5</v>
+      </c>
+      <c r="AE185">
+        <v>38098.800000000003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>95</v>
       </c>
@@ -16957,8 +18067,14 @@
       <c r="AC186">
         <v>38030.469314000002</v>
       </c>
-    </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD186">
+        <v>42553.900000000009</v>
+      </c>
+      <c r="AE186">
+        <v>42293.30000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>95</v>
       </c>
@@ -17046,8 +18162,14 @@
       <c r="AC187">
         <v>37414.198552000002</v>
       </c>
-    </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD187">
+        <v>41636.700000000004</v>
+      </c>
+      <c r="AE187">
+        <v>41272.699999999997</v>
+      </c>
+    </row>
+    <row r="188" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>95</v>
       </c>
@@ -17135,8 +18257,14 @@
       <c r="AC188">
         <v>36579.650659999999</v>
       </c>
-    </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD188">
+        <v>40122.400000000001</v>
+      </c>
+      <c r="AE188">
+        <v>38079.300000000003</v>
+      </c>
+    </row>
+    <row r="189" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>95</v>
       </c>
@@ -17224,8 +18352,14 @@
       <c r="AC189">
         <v>37492.059852000006</v>
       </c>
-    </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD189">
+        <v>42358</v>
+      </c>
+      <c r="AE189">
+        <v>42530.600000000006</v>
+      </c>
+    </row>
+    <row r="190" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>95</v>
       </c>
@@ -17313,8 +18447,14 @@
       <c r="AC190">
         <v>35968.284197999994</v>
       </c>
-    </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD190">
+        <v>40817.899999999994</v>
+      </c>
+      <c r="AE190">
+        <v>40498.800000000003</v>
+      </c>
+    </row>
+    <row r="191" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>95</v>
       </c>
@@ -17402,8 +18542,14 @@
       <c r="AC191">
         <v>37084.377317000006</v>
       </c>
-    </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD191">
+        <v>41528.1</v>
+      </c>
+      <c r="AE191">
+        <v>40542</v>
+      </c>
+    </row>
+    <row r="192" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>95</v>
       </c>
@@ -17491,8 +18637,14 @@
       <c r="AC192">
         <v>37616.805639999999</v>
       </c>
-    </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD192">
+        <v>42220.5</v>
+      </c>
+      <c r="AE192">
+        <v>41021.9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>95</v>
       </c>
@@ -17580,8 +18732,14 @@
       <c r="AC193">
         <v>37664.407544000002</v>
       </c>
-    </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD193">
+        <v>42010.9</v>
+      </c>
+      <c r="AE193">
+        <v>41034.199999999997</v>
+      </c>
+    </row>
+    <row r="194" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>95</v>
       </c>
@@ -17669,8 +18827,14 @@
       <c r="AC194">
         <v>34386.108636000004</v>
       </c>
-    </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD194">
+        <v>38297.799999999996</v>
+      </c>
+      <c r="AE194">
+        <v>38311.399999999994</v>
+      </c>
+    </row>
+    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>95</v>
       </c>
@@ -17758,8 +18922,14 @@
       <c r="AC195">
         <v>32362.196307000002</v>
       </c>
-    </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD195">
+        <v>35269.300000000003</v>
+      </c>
+      <c r="AE195">
+        <v>32554.1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>95</v>
       </c>
@@ -17847,8 +19017,14 @@
       <c r="AC196">
         <v>32918.888449999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD196">
+        <v>37675.000000000007</v>
+      </c>
+      <c r="AE196">
+        <v>35641.699999999997</v>
+      </c>
+    </row>
+    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>95</v>
       </c>
@@ -17936,8 +19112,14 @@
       <c r="AC197">
         <v>32974.074640999999</v>
       </c>
-    </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD197">
+        <v>37217</v>
+      </c>
+      <c r="AE197">
+        <v>34722.100000000006</v>
+      </c>
+    </row>
+    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>95</v>
       </c>
@@ -18025,8 +19207,14 @@
       <c r="AC198">
         <v>33266.533490000002</v>
       </c>
-    </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD198">
+        <v>37648.9</v>
+      </c>
+      <c r="AE198">
+        <v>34971.300000000003</v>
+      </c>
+    </row>
+    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>95</v>
       </c>
@@ -18114,8 +19302,14 @@
       <c r="AC199">
         <v>33441.636062999998</v>
       </c>
-    </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD199">
+        <v>37825.600000000006</v>
+      </c>
+      <c r="AE199">
+        <v>35430.699999999997</v>
+      </c>
+    </row>
+    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>95</v>
       </c>
@@ -18203,8 +19397,14 @@
       <c r="AC200">
         <v>33630.539673000007</v>
       </c>
-    </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD200">
+        <v>38275.300000000003</v>
+      </c>
+      <c r="AE200">
+        <v>35776.800000000003</v>
+      </c>
+    </row>
+    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>95</v>
       </c>
@@ -18292,8 +19492,14 @@
       <c r="AC201">
         <v>33849.627881</v>
       </c>
-    </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD201">
+        <v>37574.200000000004</v>
+      </c>
+      <c r="AE201">
+        <v>35512.899999999994</v>
+      </c>
+    </row>
+    <row r="202" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>95</v>
       </c>
@@ -18381,8 +19587,14 @@
       <c r="AC202">
         <v>33521.772879999997</v>
       </c>
-    </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD202">
+        <v>36177.899999999994</v>
+      </c>
+      <c r="AE202">
+        <v>32918</v>
+      </c>
+    </row>
+    <row r="203" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>95</v>
       </c>
@@ -18470,8 +19682,14 @@
       <c r="AC203">
         <v>34693.4</v>
       </c>
-    </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD203">
+        <v>38940</v>
+      </c>
+      <c r="AE203">
+        <v>37012.199999999997</v>
+      </c>
+    </row>
+    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>95</v>
       </c>
@@ -18559,8 +19777,14 @@
       <c r="AC204">
         <v>34084.098721999995</v>
       </c>
-    </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD204">
+        <v>38882.800000000003</v>
+      </c>
+      <c r="AE204">
+        <v>37058.199999999997</v>
+      </c>
+    </row>
+    <row r="205" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>95</v>
       </c>
@@ -18648,8 +19872,14 @@
       <c r="AC205">
         <v>31698.125707000003</v>
       </c>
-    </row>
-    <row r="206" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD205">
+        <v>36638.5</v>
+      </c>
+      <c r="AE205">
+        <v>35667.300000000003</v>
+      </c>
+    </row>
+    <row r="206" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>95</v>
       </c>
@@ -18737,8 +19967,14 @@
       <c r="AC206">
         <v>28002.408380000001</v>
       </c>
-    </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD206">
+        <v>31260.100000000002</v>
+      </c>
+      <c r="AE206">
+        <v>28492.700000000004</v>
+      </c>
+    </row>
+    <row r="207" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>95</v>
       </c>
@@ -18826,8 +20062,14 @@
       <c r="AC207">
         <v>29037.251761999996</v>
       </c>
-    </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD207">
+        <v>30050.400000000001</v>
+      </c>
+      <c r="AE207">
+        <v>25341.799999999996</v>
+      </c>
+    </row>
+    <row r="208" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>95</v>
       </c>
@@ -18915,8 +20157,14 @@
       <c r="AC208">
         <v>31382.049751999999</v>
       </c>
-    </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD208">
+        <v>35133.4</v>
+      </c>
+      <c r="AE208">
+        <v>32140.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>95</v>
       </c>
@@ -19004,8 +20252,14 @@
       <c r="AC209">
         <v>31428.754280000001</v>
       </c>
-    </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD209">
+        <v>34679.899999999994</v>
+      </c>
+      <c r="AE209">
+        <v>30453.4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>95</v>
       </c>
@@ -19093,8 +20347,14 @@
       <c r="AC210">
         <v>32625.252631000003</v>
       </c>
-    </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD210">
+        <v>37109.200000000004</v>
+      </c>
+      <c r="AE210">
+        <v>34795.4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>95</v>
       </c>
@@ -19182,8 +20442,14 @@
       <c r="AC211">
         <v>32627.286188000002</v>
       </c>
-    </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD211">
+        <v>37314.300000000003</v>
+      </c>
+      <c r="AE211">
+        <v>34331.800000000003</v>
+      </c>
+    </row>
+    <row r="212" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>95</v>
       </c>
@@ -19271,8 +20537,14 @@
       <c r="AC212">
         <v>32392.326091999999</v>
       </c>
-    </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD212">
+        <v>36729</v>
+      </c>
+      <c r="AE212">
+        <v>34173.4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>95</v>
       </c>
@@ -19360,8 +20632,14 @@
       <c r="AC213">
         <v>32201.421014</v>
       </c>
-    </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD213">
+        <v>36966.800000000003</v>
+      </c>
+      <c r="AE213">
+        <v>33943.799999999996</v>
+      </c>
+    </row>
+    <row r="214" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>95</v>
       </c>
@@ -19449,8 +20727,14 @@
       <c r="AC214">
         <v>32271.399999999998</v>
       </c>
-    </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD214">
+        <v>37133.199999999997</v>
+      </c>
+      <c r="AE214">
+        <v>33910.199999999997</v>
+      </c>
+    </row>
+    <row r="215" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>95</v>
       </c>
@@ -19538,8 +20822,14 @@
       <c r="AC215">
         <v>30937.811211999997</v>
       </c>
-    </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD215">
+        <v>35804.600000000006</v>
+      </c>
+      <c r="AE215">
+        <v>33455.199999999997</v>
+      </c>
+    </row>
+    <row r="216" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>95</v>
       </c>
@@ -19627,8 +20917,14 @@
       <c r="AC216">
         <v>29628.59878</v>
       </c>
-    </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD216">
+        <v>33731</v>
+      </c>
+      <c r="AE216">
+        <v>29972.7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>95</v>
       </c>
@@ -19645,79 +20941,85 @@
         <v>1</v>
       </c>
       <c r="F217">
-        <v>27649.368848000002</v>
+        <v>27649.536739999996</v>
       </c>
       <c r="G217">
-        <v>26580.484467999999</v>
+        <v>26580.322390000005</v>
       </c>
       <c r="H217">
-        <v>25854.600000000002</v>
+        <v>25854.6</v>
       </c>
       <c r="I217">
-        <v>25448.399999999998</v>
+        <v>25448.400000000001</v>
       </c>
       <c r="J217">
-        <v>25204.639074999999</v>
+        <v>25204.722205000002</v>
       </c>
       <c r="K217">
-        <v>25089.697725000002</v>
+        <v>25089.79794</v>
       </c>
       <c r="L217">
-        <v>25080.059160000001</v>
+        <v>25079.640960000008</v>
       </c>
       <c r="M217">
-        <v>26511.4</v>
+        <v>26511.399999999998</v>
       </c>
       <c r="N217">
-        <v>28678.418537999998</v>
+        <v>28678.292976000001</v>
       </c>
       <c r="O217">
-        <v>30219.293632000001</v>
+        <v>30219.686383</v>
       </c>
       <c r="P217">
-        <v>31431.361826</v>
+        <v>31429.493661</v>
       </c>
       <c r="Q217">
-        <v>32154.869976000002</v>
+        <v>32148.528164000003</v>
       </c>
       <c r="R217">
-        <v>32412.005997999997</v>
+        <v>32412.890745999997</v>
       </c>
       <c r="S217">
-        <v>32708.603159999999</v>
+        <v>32709.813695999997</v>
       </c>
       <c r="T217">
-        <v>32816.492999999995</v>
+        <v>32817.686502000004</v>
       </c>
       <c r="U217">
-        <v>32469.845012000002</v>
+        <v>32471.625319999999</v>
       </c>
       <c r="V217">
-        <v>32127.206764000002</v>
+        <v>32127.802290999993</v>
       </c>
       <c r="W217">
-        <v>33859.028527999995</v>
+        <v>33860.235392000002</v>
       </c>
       <c r="X217">
-        <v>35558.393405999996</v>
+        <v>35559.720527999998</v>
       </c>
       <c r="Y217">
-        <v>35713.776680000003</v>
+        <v>35714.427694999998</v>
       </c>
       <c r="Z217">
-        <v>34980.550815999995</v>
+        <v>34981.098402999996</v>
       </c>
       <c r="AA217">
         <v>34075.9</v>
       </c>
       <c r="AB217">
-        <v>32789.168990999999</v>
+        <v>32789.436996000004</v>
       </c>
       <c r="AC217">
-        <v>30992.585716000001</v>
-      </c>
-    </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.2">
+        <v>30992.699395</v>
+      </c>
+      <c r="AD217">
+        <v>36146.700000000004</v>
+      </c>
+      <c r="AE217">
+        <v>33157.499999999993</v>
+      </c>
+    </row>
+    <row r="218" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>95</v>
       </c>
@@ -19805,8 +21107,14 @@
       <c r="AC218">
         <v>30583.273209999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD218">
+        <v>35661.000000000007</v>
+      </c>
+      <c r="AE218">
+        <v>32542.2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>95</v>
       </c>
@@ -19894,8 +21202,14 @@
       <c r="AC219">
         <v>31028.067611000002</v>
       </c>
-    </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD219">
+        <v>36528.6</v>
+      </c>
+      <c r="AE219">
+        <v>32526.1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>95</v>
       </c>
@@ -19983,8 +21297,14 @@
       <c r="AC220">
         <v>31585.583133</v>
       </c>
-    </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD220">
+        <v>36291</v>
+      </c>
+      <c r="AE220">
+        <v>33213.700000000012</v>
+      </c>
+    </row>
+    <row r="221" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>95</v>
       </c>
@@ -20072,8 +21392,14 @@
       <c r="AC221">
         <v>31747.951202000004</v>
       </c>
-    </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD221">
+        <v>35837.499999999993</v>
+      </c>
+      <c r="AE221">
+        <v>32538.300000000003</v>
+      </c>
+    </row>
+    <row r="222" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>95</v>
       </c>
@@ -20161,8 +21487,14 @@
       <c r="AC222">
         <v>30895.943435999998</v>
       </c>
-    </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD222">
+        <v>34929.1</v>
+      </c>
+      <c r="AE222">
+        <v>33145.1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>95</v>
       </c>
@@ -20179,79 +21511,85 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>28894.956052999998</v>
+        <v>28895.116294999996</v>
       </c>
       <c r="G223">
-        <v>27791.523702000002</v>
+        <v>27791.694959999997</v>
       </c>
       <c r="H223">
-        <v>27103.969922000004</v>
+        <v>27104.054581999997</v>
       </c>
       <c r="I223">
-        <v>26587.733336999998</v>
+        <v>26587.819527000011</v>
       </c>
       <c r="J223">
         <v>26022.400000000001</v>
       </c>
       <c r="K223">
-        <v>25750.541300000001</v>
+        <v>25750.837049000002</v>
       </c>
       <c r="L223">
-        <v>25115.599999999999</v>
+        <v>25115.599999999995</v>
       </c>
       <c r="M223">
-        <v>24896.6</v>
+        <v>24892.1</v>
       </c>
       <c r="N223">
-        <v>25981.674303999996</v>
+        <v>25981.339030000003</v>
       </c>
       <c r="O223">
-        <v>27032.179384000003</v>
+        <v>27031.823302000001</v>
       </c>
       <c r="P223">
-        <v>28389.971505000001</v>
+        <v>28389.440085000002</v>
       </c>
       <c r="Q223">
-        <v>29268.415734000002</v>
+        <v>29269.804055999997</v>
       </c>
       <c r="R223">
-        <v>29623.384365000002</v>
+        <v>29624.081585999993</v>
       </c>
       <c r="S223">
-        <v>29179.399999999998</v>
+        <v>29179.4</v>
       </c>
       <c r="T223">
-        <v>29017.084144</v>
+        <v>29019.726556000001</v>
       </c>
       <c r="U223">
-        <v>28530.9</v>
+        <v>28530.899999999994</v>
       </c>
       <c r="V223">
-        <v>29001.901482999998</v>
+        <v>29002.535056000001</v>
       </c>
       <c r="W223">
         <v>31423.8</v>
       </c>
       <c r="X223">
-        <v>33376.273220000003</v>
+        <v>33378.901556000004</v>
       </c>
       <c r="Y223">
-        <v>33046.337768000005</v>
+        <v>33046.980725000001</v>
       </c>
       <c r="Z223">
-        <v>32758.184801000003</v>
+        <v>32758.799045000007</v>
       </c>
       <c r="AA223">
-        <v>32498.817146000001</v>
+        <v>32499.412111999998</v>
       </c>
       <c r="AB223">
-        <v>31363.176896000001</v>
+        <v>31364.106218000001</v>
       </c>
       <c r="AC223">
-        <v>29775.306844999999</v>
-      </c>
-    </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.2">
+        <v>29771.630899</v>
+      </c>
+      <c r="AD223">
+        <v>33839.200000000004</v>
+      </c>
+      <c r="AE223">
+        <v>29763.9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>95</v>
       </c>
@@ -20339,8 +21677,14 @@
       <c r="AC224">
         <v>30772.945247</v>
       </c>
-    </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD224">
+        <v>36128.200000000004</v>
+      </c>
+      <c r="AE224">
+        <v>33543.599999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>95</v>
       </c>
@@ -20428,8 +21772,14 @@
       <c r="AC225">
         <v>30266.221722000002</v>
       </c>
-    </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD225">
+        <v>35868.699999999997</v>
+      </c>
+      <c r="AE225">
+        <v>32579.600000000006</v>
+      </c>
+    </row>
+    <row r="226" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>95</v>
       </c>
@@ -20517,8 +21867,14 @@
       <c r="AC226">
         <v>30684.680499000002</v>
       </c>
-    </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD226">
+        <v>35328.700000000004</v>
+      </c>
+      <c r="AE226">
+        <v>31698.1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>95</v>
       </c>
@@ -20606,8 +21962,14 @@
       <c r="AC227">
         <v>31390.133227999999</v>
       </c>
-    </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD227">
+        <v>36059.899999999994</v>
+      </c>
+      <c r="AE227">
+        <v>32794.199999999997</v>
+      </c>
+    </row>
+    <row r="228" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>95</v>
       </c>
@@ -20695,8 +22057,14 @@
       <c r="AC228">
         <v>29639.376205</v>
       </c>
-    </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD228">
+        <v>35337.599999999999</v>
+      </c>
+      <c r="AE228">
+        <v>33072.6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>95</v>
       </c>
@@ -20784,8 +22152,14 @@
       <c r="AC229">
         <v>28627.892325000001</v>
       </c>
-    </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD229">
+        <v>33743</v>
+      </c>
+      <c r="AE229">
+        <v>31540.899999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>95</v>
       </c>
@@ -20873,8 +22247,14 @@
       <c r="AC230">
         <v>27302.363374</v>
       </c>
-    </row>
-    <row r="231" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD230">
+        <v>31542.5</v>
+      </c>
+      <c r="AE230">
+        <v>27978.300000000003</v>
+      </c>
+    </row>
+    <row r="231" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>95</v>
       </c>
@@ -20962,8 +22342,14 @@
       <c r="AC231">
         <v>30004.799999999999</v>
       </c>
-    </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD231">
+        <v>34704.400000000001</v>
+      </c>
+      <c r="AE231">
+        <v>31473.599999999995</v>
+      </c>
+    </row>
+    <row r="232" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>95</v>
       </c>
@@ -21051,8 +22437,14 @@
       <c r="AC232">
         <v>28821.284392000001</v>
       </c>
-    </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD232">
+        <v>34582.400000000001</v>
+      </c>
+      <c r="AE232">
+        <v>31453.1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>95</v>
       </c>
@@ -21140,8 +22532,14 @@
       <c r="AC233">
         <v>28525.474307999997</v>
       </c>
-    </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD233">
+        <v>34647.299999999996</v>
+      </c>
+      <c r="AE233">
+        <v>31696.300000000003</v>
+      </c>
+    </row>
+    <row r="234" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>95</v>
       </c>
@@ -21229,8 +22627,14 @@
       <c r="AC234">
         <v>28456.095459</v>
       </c>
-    </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD234">
+        <v>34419.400000000009</v>
+      </c>
+      <c r="AE234">
+        <v>31549.400000000009</v>
+      </c>
+    </row>
+    <row r="235" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>95</v>
       </c>
@@ -21318,8 +22722,14 @@
       <c r="AC235">
         <v>28175.132022000002</v>
       </c>
-    </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD235">
+        <v>34430.200000000004</v>
+      </c>
+      <c r="AE235">
+        <v>30863.700000000004</v>
+      </c>
+    </row>
+    <row r="236" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>95</v>
       </c>
@@ -21407,8 +22817,14 @@
       <c r="AC236">
         <v>28045.200000000001</v>
       </c>
-    </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD236">
+        <v>32993.100000000006</v>
+      </c>
+      <c r="AE236">
+        <v>30515.500000000007</v>
+      </c>
+    </row>
+    <row r="237" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>95</v>
       </c>
@@ -21496,8 +22912,14 @@
       <c r="AC237">
         <v>26925</v>
       </c>
-    </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD237">
+        <v>31543.4</v>
+      </c>
+      <c r="AE237">
+        <v>27451.399999999994</v>
+      </c>
+    </row>
+    <row r="238" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>95</v>
       </c>
@@ -21585,8 +23007,14 @@
       <c r="AC238">
         <v>28352.416505000001</v>
       </c>
-    </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD238">
+        <v>34382.699999999997</v>
+      </c>
+      <c r="AE238">
+        <v>31062.700000000008</v>
+      </c>
+    </row>
+    <row r="239" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>95</v>
       </c>
@@ -21674,8 +23102,14 @@
       <c r="AC239">
         <v>27531.820275999999</v>
       </c>
-    </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD239">
+        <v>34272.200000000004</v>
+      </c>
+      <c r="AE239">
+        <v>31186.699999999997</v>
+      </c>
+    </row>
+    <row r="240" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>95</v>
       </c>
@@ -21763,8 +23197,14 @@
       <c r="AC240">
         <v>28016.6</v>
       </c>
-    </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD240">
+        <v>33893.5</v>
+      </c>
+      <c r="AE240">
+        <v>30971.9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>95</v>
       </c>
@@ -21852,8 +23292,14 @@
       <c r="AC241">
         <v>28035.839435999998</v>
       </c>
-    </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD241">
+        <v>34282.700000000004</v>
+      </c>
+      <c r="AE241">
+        <v>31356.900000000005</v>
+      </c>
+    </row>
+    <row r="242" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>95</v>
       </c>
@@ -21941,8 +23387,14 @@
       <c r="AC242">
         <v>28228.296223000001</v>
       </c>
-    </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD242">
+        <v>34161.100000000006</v>
+      </c>
+      <c r="AE242">
+        <v>31449.999999999996</v>
+      </c>
+    </row>
+    <row r="243" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>95</v>
       </c>
@@ -22030,8 +23482,14 @@
       <c r="AC243">
         <v>27726.921456</v>
       </c>
-    </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD243">
+        <v>33073.799999999996</v>
+      </c>
+      <c r="AE243">
+        <v>30833.4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>95</v>
       </c>
@@ -22119,8 +23577,14 @@
       <c r="AC244">
         <v>27004.520667000001</v>
       </c>
-    </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD244">
+        <v>31385.484649000002</v>
+      </c>
+      <c r="AE244">
+        <v>27451.300000000003</v>
+      </c>
+    </row>
+    <row r="245" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>95</v>
       </c>
@@ -22208,8 +23672,14 @@
       <c r="AC245">
         <v>27604.1</v>
       </c>
-    </row>
-    <row r="246" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD245">
+        <v>33017.5</v>
+      </c>
+      <c r="AE245">
+        <v>30291.759480000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>95</v>
       </c>
@@ -22297,8 +23767,14 @@
       <c r="AC246">
         <v>26668.093795000001</v>
       </c>
-    </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD246">
+        <v>30616.100000000006</v>
+      </c>
+      <c r="AE246">
+        <v>26307.839691999994</v>
+      </c>
+    </row>
+    <row r="247" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>95</v>
       </c>
@@ -22386,8 +23862,14 @@
       <c r="AC247">
         <v>27533.150927999999</v>
       </c>
-    </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD247">
+        <v>33782.799999999996</v>
+      </c>
+      <c r="AE247">
+        <v>31213.876323000004</v>
+      </c>
+    </row>
+    <row r="248" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>95</v>
       </c>
@@ -22475,8 +23957,14 @@
       <c r="AC248">
         <v>27794.520642000003</v>
       </c>
-    </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD248">
+        <v>33821.108739999996</v>
+      </c>
+      <c r="AE248">
+        <v>31379.876986000003</v>
+      </c>
+    </row>
+    <row r="249" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>95</v>
       </c>
@@ -22564,8 +24052,14 @@
       <c r="AC249">
         <v>27511.523724999999</v>
       </c>
-    </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD249">
+        <v>34084.700000000004</v>
+      </c>
+      <c r="AE249">
+        <v>31122.832143999996</v>
+      </c>
+    </row>
+    <row r="250" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>95</v>
       </c>
@@ -22653,8 +24147,14 @@
       <c r="AC250">
         <v>27409.01426</v>
       </c>
-    </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD250">
+        <v>32628.758398999998</v>
+      </c>
+      <c r="AE250">
+        <v>30129.299999999992</v>
+      </c>
+    </row>
+    <row r="251" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>95</v>
       </c>
@@ -22742,8 +24242,14 @@
       <c r="AC251">
         <v>26501.108676</v>
       </c>
-    </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD251">
+        <v>31100.031357</v>
+      </c>
+      <c r="AE251">
+        <v>26698.3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>95</v>
       </c>
@@ -22831,8 +24337,14 @@
       <c r="AC252">
         <v>27952.137136000001</v>
       </c>
-    </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD252">
+        <v>34649.300000000003</v>
+      </c>
+      <c r="AE252">
+        <v>31031.937396000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>95</v>
       </c>
@@ -22920,8 +24432,14 @@
       <c r="AC253">
         <v>27734.900578000001</v>
       </c>
-    </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD253">
+        <v>33785.519714999995</v>
+      </c>
+      <c r="AE253">
+        <v>30530.300000000003</v>
+      </c>
+    </row>
+    <row r="254" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>95</v>
       </c>
@@ -23009,8 +24527,14 @@
       <c r="AC254">
         <v>26795.827154999999</v>
       </c>
-    </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD254">
+        <v>30939.800000000003</v>
+      </c>
+      <c r="AE254">
+        <v>26086.1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>95</v>
       </c>
@@ -23098,8 +24622,14 @@
       <c r="AC255">
         <v>27292.799999999999</v>
       </c>
-    </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD255">
+        <v>33195.631646000002</v>
+      </c>
+      <c r="AE255">
+        <v>30428.400000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>95</v>
       </c>
@@ -23187,8 +24717,14 @@
       <c r="AC256">
         <v>27350.773725999999</v>
       </c>
-    </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD256">
+        <v>31785.299999999996</v>
+      </c>
+      <c r="AE256">
+        <v>27475.9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>95</v>
       </c>
@@ -23276,8 +24812,14 @@
       <c r="AC257">
         <v>27142.356994000002</v>
       </c>
-    </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD257">
+        <v>32426.400000000001</v>
+      </c>
+      <c r="AE257">
+        <v>29961.1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>95</v>
       </c>
@@ -23365,8 +24907,14 @@
       <c r="AC258">
         <v>26559.002458999999</v>
       </c>
-    </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD258">
+        <v>30632.399999999994</v>
+      </c>
+      <c r="AE258">
+        <v>27013.200000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>95</v>
       </c>
@@ -23454,8 +25002,14 @@
       <c r="AC259">
         <v>28168.738549999998</v>
       </c>
-    </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD259">
+        <v>34097.4</v>
+      </c>
+      <c r="AE259">
+        <v>30282.400000000005</v>
+      </c>
+    </row>
+    <row r="260" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>95</v>
       </c>
@@ -23543,8 +25097,14 @@
       <c r="AC260">
         <v>28608.799999999999</v>
       </c>
-    </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD260">
+        <v>34166.600000000006</v>
+      </c>
+      <c r="AE260">
+        <v>30616.533473999996</v>
+      </c>
+    </row>
+    <row r="261" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>95</v>
       </c>
@@ -23632,8 +25192,14 @@
       <c r="AC261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD261">
+        <v>34348.399999999994</v>
+      </c>
+      <c r="AE261">
+        <v>30744.599999999991</v>
+      </c>
+    </row>
+    <row r="262" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>95</v>
       </c>
@@ -23649,8 +25215,14 @@
       <c r="E262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD262">
+        <v>34351.100000000006</v>
+      </c>
+      <c r="AE262">
+        <v>31091.758720000005</v>
+      </c>
+    </row>
+    <row r="263" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>95</v>
       </c>
@@ -23666,8 +25238,14 @@
       <c r="E263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD263">
+        <v>34492.1</v>
+      </c>
+      <c r="AE263">
+        <v>30688.859554000002</v>
+      </c>
+    </row>
+    <row r="264" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>95</v>
       </c>
@@ -23683,8 +25261,14 @@
       <c r="E264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD264">
+        <v>33490.411223000003</v>
+      </c>
+      <c r="AE264">
+        <v>31000.200000000008</v>
+      </c>
+    </row>
+    <row r="265" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>95</v>
       </c>
@@ -23700,8 +25284,14 @@
       <c r="E265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD265">
+        <v>31663.299999999992</v>
+      </c>
+      <c r="AE265">
+        <v>28259.200000000004</v>
+      </c>
+    </row>
+    <row r="266" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>95</v>
       </c>
@@ -23717,8 +25307,14 @@
       <c r="E266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD266">
+        <v>34992.799999999988</v>
+      </c>
+      <c r="AE266">
+        <v>31659.7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>95</v>
       </c>
@@ -23734,8 +25330,14 @@
       <c r="E267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD267">
+        <v>35108.900000000009</v>
+      </c>
+      <c r="AE267">
+        <v>31903.699999999997</v>
+      </c>
+    </row>
+    <row r="268" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>95</v>
       </c>
@@ -23751,8 +25353,14 @@
       <c r="E268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD268">
+        <v>35273.5</v>
+      </c>
+      <c r="AE268">
+        <v>31690.699999999993</v>
+      </c>
+    </row>
+    <row r="269" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>95</v>
       </c>
@@ -23768,8 +25376,14 @@
       <c r="E269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD269">
+        <v>34663.599999999999</v>
+      </c>
+      <c r="AE269">
+        <v>31347.4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>95</v>
       </c>
@@ -23785,8 +25399,14 @@
       <c r="E270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD270">
+        <v>33553.4</v>
+      </c>
+      <c r="AE270">
+        <v>30840.199999999997</v>
+      </c>
+    </row>
+    <row r="271" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>95</v>
       </c>
@@ -23802,8 +25422,14 @@
       <c r="E271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD271">
+        <v>33405.399999999994</v>
+      </c>
+      <c r="AE271">
+        <v>31355.413138</v>
+      </c>
+    </row>
+    <row r="272" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>95</v>
       </c>
@@ -23819,8 +25445,14 @@
       <c r="E272">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD272">
+        <v>31349.000000000004</v>
+      </c>
+      <c r="AE272">
+        <v>26879.303811999998</v>
+      </c>
+    </row>
+    <row r="273" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>95</v>
       </c>
@@ -23836,8 +25468,14 @@
       <c r="E273">
         <v>3</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD273">
+        <v>32422.100000000002</v>
+      </c>
+      <c r="AE273">
+        <v>28729.1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>95</v>
       </c>
@@ -23853,8 +25491,14 @@
       <c r="E274">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD274">
+        <v>35486.200000000004</v>
+      </c>
+      <c r="AE274">
+        <v>31896.500000000004</v>
+      </c>
+    </row>
+    <row r="275" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>95</v>
       </c>
@@ -23870,8 +25514,14 @@
       <c r="E275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD275">
+        <v>34947</v>
+      </c>
+      <c r="AE275">
+        <v>31983.800000000003</v>
+      </c>
+    </row>
+    <row r="276" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>95</v>
       </c>
@@ -23887,8 +25537,14 @@
       <c r="E276">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD276">
+        <v>34508.799999999996</v>
+      </c>
+      <c r="AE276">
+        <v>32448.198773000007</v>
+      </c>
+    </row>
+    <row r="277" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>95</v>
       </c>
@@ -23904,8 +25560,14 @@
       <c r="E277">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD277">
+        <v>34441.4</v>
+      </c>
+      <c r="AE277">
+        <v>30982.200000000004</v>
+      </c>
+    </row>
+    <row r="278" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>95</v>
       </c>
@@ -23921,8 +25583,14 @@
       <c r="E278">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD278">
+        <v>33926.100000000006</v>
+      </c>
+      <c r="AE278">
+        <v>32087.800000000003</v>
+      </c>
+    </row>
+    <row r="279" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>95</v>
       </c>
@@ -23938,8 +25606,14 @@
       <c r="E279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD279">
+        <v>31774.799999999996</v>
+      </c>
+      <c r="AE279">
+        <v>28017.850832000004</v>
+      </c>
+    </row>
+    <row r="280" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>95</v>
       </c>
@@ -23955,8 +25629,14 @@
       <c r="E280">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD280">
+        <v>34941.5</v>
+      </c>
+      <c r="AE280">
+        <v>31958.999999999996</v>
+      </c>
+    </row>
+    <row r="281" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>95</v>
       </c>
@@ -23972,8 +25652,14 @@
       <c r="E281">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD281">
+        <v>34827.999999999993</v>
+      </c>
+      <c r="AE281">
+        <v>31844.500000000004</v>
+      </c>
+    </row>
+    <row r="282" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>95</v>
       </c>
@@ -23989,8 +25675,14 @@
       <c r="E282">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD282">
+        <v>35228.1</v>
+      </c>
+      <c r="AE282">
+        <v>32378.860295999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>95</v>
       </c>
@@ -24006,8 +25698,14 @@
       <c r="E283">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD283">
+        <v>35293.1</v>
+      </c>
+      <c r="AE283">
+        <v>32351.599999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>95</v>
       </c>
@@ -24023,8 +25721,14 @@
       <c r="E284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD284">
+        <v>34826.5</v>
+      </c>
+      <c r="AE284">
+        <v>31986.199999999993</v>
+      </c>
+    </row>
+    <row r="285" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>95</v>
       </c>
@@ -24040,8 +25744,14 @@
       <c r="E285">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD285">
+        <v>33836.6</v>
+      </c>
+      <c r="AE285">
+        <v>31039.300000000003</v>
+      </c>
+    </row>
+    <row r="286" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>95</v>
       </c>
@@ -24057,8 +25767,14 @@
       <c r="E286">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD286">
+        <v>31480.9</v>
+      </c>
+      <c r="AE286">
+        <v>27797.9</v>
+      </c>
+    </row>
+    <row r="287" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>95</v>
       </c>
@@ -24074,8 +25790,14 @@
       <c r="E287">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD287">
+        <v>34387.399999999994</v>
+      </c>
+      <c r="AE287">
+        <v>31499.199999999997</v>
+      </c>
+    </row>
+    <row r="288" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>95</v>
       </c>
@@ -24091,8 +25813,14 @@
       <c r="E288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD288">
+        <v>33559.000000000007</v>
+      </c>
+      <c r="AE288">
+        <v>30101.199999999993</v>
+      </c>
+    </row>
+    <row r="289" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>95</v>
       </c>
@@ -24108,8 +25836,14 @@
       <c r="E289">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD289">
+        <v>33579.9</v>
+      </c>
+      <c r="AE289">
+        <v>30535.600000000002</v>
+      </c>
+    </row>
+    <row r="290" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>95</v>
       </c>
@@ -24125,8 +25859,14 @@
       <c r="E290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="AD290">
+        <v>33314.1</v>
+      </c>
+      <c r="AE290">
+        <v>30354.300000000003</v>
+      </c>
+    </row>
+    <row r="291" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>95</v>
       </c>
@@ -24143,7 +25883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>95</v>
       </c>
@@ -24160,7 +25900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>95</v>
       </c>
@@ -24177,7 +25917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>95</v>
       </c>
@@ -24194,7 +25934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>95</v>
       </c>
@@ -24211,7 +25951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>95</v>
       </c>
@@ -24228,7 +25968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>95</v>
       </c>
@@ -24245,7 +25985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>95</v>
       </c>
@@ -24262,7 +26002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>95</v>
       </c>
@@ -24279,7 +26019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>95</v>
       </c>
@@ -24296,7 +26036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>95</v>
       </c>
@@ -24313,7 +26053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>95</v>
       </c>
@@ -24330,7 +26070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>95</v>
       </c>
@@ -24347,7 +26087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>95</v>
       </c>
@@ -24364,7 +26104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>95</v>
       </c>
@@ -24381,7 +26121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>95</v>
       </c>
@@ -24398,7 +26138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>95</v>
       </c>
@@ -24415,7 +26155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>95</v>
       </c>
@@ -24432,7 +26172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>95</v>
       </c>
@@ -24449,7 +26189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>95</v>
       </c>
@@ -24466,7 +26206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>95</v>
       </c>
@@ -24483,7 +26223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>95</v>
       </c>
@@ -24500,7 +26240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>95</v>
       </c>
@@ -24517,7 +26257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>95</v>
       </c>
@@ -24534,7 +26274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>95</v>
       </c>
@@ -24551,7 +26291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>95</v>
       </c>
@@ -24568,7 +26308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>95</v>
       </c>
@@ -24585,7 +26325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>95</v>
       </c>
@@ -24602,7 +26342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>95</v>
       </c>
@@ -24619,7 +26359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>95</v>
       </c>
@@ -24636,7 +26376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>95</v>
       </c>
@@ -24653,7 +26393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>95</v>
       </c>
@@ -24670,7 +26410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>95</v>
       </c>
@@ -24687,7 +26427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>95</v>
       </c>
@@ -24704,7 +26444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>95</v>
       </c>
@@ -24721,7 +26461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>95</v>
       </c>
@@ -24738,7 +26478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>95</v>
       </c>
@@ -24755,7 +26495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>95</v>
       </c>
@@ -24772,7 +26512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>95</v>
       </c>
@@ -24789,7 +26529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>95</v>
       </c>
@@ -24806,7 +26546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>95</v>
       </c>
@@ -24823,7 +26563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>95</v>
       </c>
@@ -24840,7 +26580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>95</v>
       </c>
@@ -24857,7 +26597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>95</v>
       </c>
@@ -24874,7 +26614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>95</v>
       </c>
@@ -24891,7 +26631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>95</v>
       </c>
@@ -24908,7 +26648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>95</v>
       </c>
@@ -24925,7 +26665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>95</v>
       </c>
@@ -24942,7 +26682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>95</v>
       </c>
@@ -24959,7 +26699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>95</v>
       </c>
@@ -24976,7 +26716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>95</v>
       </c>
@@ -24993,7 +26733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>95</v>
       </c>
@@ -25010,7 +26750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>95</v>
       </c>
@@ -25027,7 +26767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>95</v>
       </c>
@@ -25044,7 +26784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>95</v>
       </c>
@@ -25061,7 +26801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>95</v>
       </c>
@@ -25078,7 +26818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>95</v>
       </c>
@@ -25095,7 +26835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>95</v>
       </c>
@@ -25112,7 +26852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>95</v>
       </c>
@@ -25129,7 +26869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>95</v>
       </c>
@@ -25146,7 +26886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>95</v>
       </c>
@@ -25163,7 +26903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>95</v>
       </c>
@@ -25180,7 +26920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>95</v>
       </c>
@@ -25197,7 +26937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>95</v>
       </c>
@@ -25214,7 +26954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>95</v>
       </c>
@@ -25231,7 +26971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>95</v>
       </c>
@@ -25248,7 +26988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>95</v>
       </c>
@@ -25265,7 +27005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>95</v>
       </c>
@@ -25282,7 +27022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>95</v>
       </c>
@@ -25299,7 +27039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>95</v>
       </c>
@@ -25316,7 +27056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>95</v>
       </c>
@@ -25333,7 +27073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>95</v>
       </c>
@@ -25350,7 +27090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>95</v>
       </c>
@@ -25367,7 +27107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>95</v>
       </c>
@@ -25384,7 +27124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>95</v>
       </c>
@@ -25401,7 +27141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>95</v>
       </c>
@@ -25429,7 +27169,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25441,7 +27181,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
